--- a/SESAccounts.xlsx
+++ b/SESAccounts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoj\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRANSITUS25\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8068796-C96F-4651-B78D-5CA50D1339F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BF1874-10EF-4B50-911F-25AB1C3FCAC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="590" yWindow="480" windowWidth="15580" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="20490" windowHeight="11070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test-Cases" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -109,7 +109,10 @@
     <t>User should be able to validate that a New Account is created</t>
   </si>
   <si>
-    <t>Approved</t>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>unmatched</t>
   </si>
 </sst>
 </file>
@@ -484,25 +487,25 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="26.26953125" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="70" customWidth="1"/>
-    <col min="5" max="5" width="107.08984375" customWidth="1"/>
-    <col min="6" max="6" width="7.81640625" customWidth="1"/>
-    <col min="7" max="7" width="46.36328125" customWidth="1"/>
-    <col min="8" max="8" width="56.81640625" customWidth="1"/>
-    <col min="9" max="9" width="20.36328125" customWidth="1"/>
+    <col min="5" max="5" width="107.140625" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" customWidth="1"/>
+    <col min="7" max="7" width="46.42578125" customWidth="1"/>
+    <col min="8" max="8" width="56.85546875" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,7 +540,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -562,8 +565,11 @@
       <c r="I2" t="s">
         <v>29</v>
       </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>18</v>
       </c>
@@ -577,7 +583,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>22</v>
       </c>
@@ -591,7 +597,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
         <v>26</v>
       </c>
